--- a/docs/StructureDefinition-average-blood-pressure.xlsx
+++ b/docs/StructureDefinition-average-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-average-blood-pressure.xlsx
+++ b/docs/StructureDefinition-average-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-average-blood-pressure.xlsx
+++ b/docs/StructureDefinition-average-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-average-blood-pressure.xlsx
+++ b/docs/StructureDefinition-average-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -581,7 +581,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -610,7 +610,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -690,7 +690,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -988,7 +988,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1043,7 +1043,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1066,7 +1066,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1165,7 +1165,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1273,7 +1273,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1374,7 +1374,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1482,7 +1482,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1532,7 +1532,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1568,7 +1568,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1605,7 +1605,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1627,7 +1627,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2376,7 +2376,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3491,7 +3491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>154</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>158</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>196</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>219</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>234</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>248</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>266</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>302</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>318</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>345</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>375</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>385</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>414</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>424</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>442</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>530</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>536</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>544</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>553</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>559</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>566</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>572</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>593</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>601</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>610</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>619</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>622</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>628</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>632</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>635</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>637</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>638</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>639</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>640</v>
       </c>
@@ -14611,12 +14611,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP101">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-average-blood-pressure.xlsx
+++ b/docs/StructureDefinition-average-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-average-blood-pressure.xlsx
+++ b/docs/StructureDefinition-average-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-average-blood-pressure.xlsx
+++ b/docs/StructureDefinition-average-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-average-blood-pressure.xlsx
+++ b/docs/StructureDefinition-average-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-average-blood-pressure.xlsx
+++ b/docs/StructureDefinition-average-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
